--- a/data/trans_orig/P35A_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P35A_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>29373</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20596</v>
+        <v>19505</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42646</v>
+        <v>41809</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05334555949797768</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03740544521085993</v>
+        <v>0.03542326080273556</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07745095975497443</v>
+        <v>0.07593025113760635</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -762,19 +762,19 @@
         <v>14165</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8952</v>
+        <v>8804</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21371</v>
+        <v>21096</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02900245871040063</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01832969513664028</v>
+        <v>0.01802635542366082</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04375575811750908</v>
+        <v>0.04319322974974078</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>52</v>
@@ -783,19 +783,19 @@
         <v>43538</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>32992</v>
+        <v>31397</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>56484</v>
+        <v>56818</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04190272808547316</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03175246681293801</v>
+        <v>0.03021747725382198</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05436275123175121</v>
+        <v>0.05468348071929605</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>9929</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5151</v>
+        <v>4799</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>18785</v>
+        <v>17716</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01803173396404628</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.009355375433448649</v>
+        <v>0.008716334672863327</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03411581042831741</v>
+        <v>0.03217514519553916</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>13</v>
@@ -833,19 +833,19 @@
         <v>9964</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5421</v>
+        <v>5483</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16698</v>
+        <v>16439</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.02040153324178129</v>
+        <v>0.0204015332417813</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01109969859364314</v>
+        <v>0.01122645509322658</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03418811385069548</v>
+        <v>0.03365901210879543</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>23</v>
@@ -854,19 +854,19 @@
         <v>19893</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>12708</v>
+        <v>13231</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>30357</v>
+        <v>30658</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01914569285750144</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01223036901476155</v>
+        <v>0.0127340857240782</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02921622319985261</v>
+        <v>0.02950604174768863</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>151261</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>131468</v>
+        <v>127944</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>176104</v>
+        <v>173994</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2747115041003207</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2387646843396305</v>
+        <v>0.2323651811923949</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3198294349066596</v>
+        <v>0.3159968399384433</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>151</v>
@@ -904,19 +904,19 @@
         <v>106062</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>89418</v>
+        <v>91312</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>122698</v>
+        <v>121373</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2171572458020847</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.183079870122817</v>
+        <v>0.1869582539756368</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2512192140276477</v>
+        <v>0.2485052157906141</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>310</v>
@@ -925,19 +925,19 @@
         <v>257323</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>229766</v>
+        <v>228907</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>285244</v>
+        <v>285803</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.2476572812005599</v>
+        <v>0.2476572812005598</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2211349051940388</v>
+        <v>0.220308882701116</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2745292090200754</v>
+        <v>0.2750678684491613</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>360055</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>335735</v>
+        <v>335538</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>383372</v>
+        <v>386651</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6539112024376554</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6097414838243281</v>
+        <v>0.6093839568153454</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6962580057473385</v>
+        <v>0.7022123271302235</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>501</v>
@@ -975,19 +975,19 @@
         <v>358220</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>340029</v>
+        <v>340621</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>374993</v>
+        <v>374127</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.7334387622457333</v>
+        <v>0.7334387622457335</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6961942391859945</v>
+        <v>0.697406838549212</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7677825611863739</v>
+        <v>0.7660086565664351</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>855</v>
@@ -996,19 +996,19 @@
         <v>718275</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>690653</v>
+        <v>689724</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>746357</v>
+        <v>746564</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.6912942978564657</v>
+        <v>0.6912942978564656</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6647102655045849</v>
+        <v>0.6638160824087799</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7183212252195993</v>
+        <v>0.7185209950898682</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>41271</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>29714</v>
+        <v>29428</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>56198</v>
+        <v>53507</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.08541015729787768</v>
+        <v>0.08541015729787767</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06149209707815439</v>
+        <v>0.06090134870817942</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1163017460961291</v>
+        <v>0.1107310133814274</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>30</v>
@@ -1121,19 +1121,19 @@
         <v>21802</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>14967</v>
+        <v>15297</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>31133</v>
+        <v>32040</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05152396161854692</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03537104961120463</v>
+        <v>0.03615197528473643</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.07357610671330868</v>
+        <v>0.0757187628631253</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>70</v>
@@ -1142,19 +1142,19 @@
         <v>63073</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>50614</v>
+        <v>49922</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>78445</v>
+        <v>79389</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06958997476609081</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05584296522399478</v>
+        <v>0.05507989361026335</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.08654992128053496</v>
+        <v>0.08759201022079172</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>23846</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14940</v>
+        <v>15911</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>34585</v>
+        <v>36937</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.04934910336754001</v>
+        <v>0.04934910336754</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03091875277913334</v>
+        <v>0.03292832631733665</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07157374872840105</v>
+        <v>0.07644156653060316</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -1192,19 +1192,19 @@
         <v>14311</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8526</v>
+        <v>9002</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21615</v>
+        <v>22736</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03382014831449597</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02014987141402317</v>
+        <v>0.0212752952788038</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05108295912159112</v>
+        <v>0.05373097551935057</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>44</v>
@@ -1213,19 +1213,19 @@
         <v>38157</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>28455</v>
+        <v>27998</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>52631</v>
+        <v>51410</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.04209922185850652</v>
+        <v>0.0420992218585065</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03139479615044667</v>
+        <v>0.03089067009166818</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05806880655626302</v>
+        <v>0.05672217487424486</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>127671</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>108095</v>
+        <v>108116</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>149136</v>
+        <v>148495</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2642130870696909</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2237005369063729</v>
+        <v>0.2237451699535748</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3086350170597051</v>
+        <v>0.3073079733922306</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>136</v>
@@ -1263,19 +1263,19 @@
         <v>96577</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>81548</v>
+        <v>81446</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>112091</v>
+        <v>112265</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2282363394187917</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1927203814066127</v>
+        <v>0.1924787555170351</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2649000620643694</v>
+        <v>0.2653127892578862</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>276</v>
@@ -1284,19 +1284,19 @@
         <v>224248</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>198135</v>
+        <v>203459</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>249806</v>
+        <v>253220</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2474169049274617</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2186060183356827</v>
+        <v>0.2244801797040838</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2756160309405944</v>
+        <v>0.2793829061662383</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>290424</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>267448</v>
+        <v>265366</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>313815</v>
+        <v>311385</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6010276522648914</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5534790324221687</v>
+        <v>0.5491718309323446</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6494358940019208</v>
+        <v>0.644406146460283</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>404</v>
@@ -1334,19 +1334,19 @@
         <v>290454</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>273386</v>
+        <v>272828</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>306035</v>
+        <v>306597</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.6864195506481653</v>
+        <v>0.6864195506481654</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6460843484982121</v>
+        <v>0.6447666422664117</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7232417297429306</v>
+        <v>0.7245700556055782</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>681</v>
@@ -1355,19 +1355,19 @@
         <v>580877</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>555208</v>
+        <v>551536</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>609440</v>
+        <v>605928</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6408938984479411</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6125727335990921</v>
+        <v>0.6085207665511294</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6724080718304523</v>
+        <v>0.6685326233906314</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>36668</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>25292</v>
+        <v>26405</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>50304</v>
+        <v>50045</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.07775037096070618</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0536297542051625</v>
+        <v>0.05598914819630662</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1066639769859592</v>
+        <v>0.1061154739286356</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>21</v>
@@ -1480,19 +1480,19 @@
         <v>13637</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>8540</v>
+        <v>8559</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>20372</v>
+        <v>19869</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.07273205453409232</v>
+        <v>0.07273205453409233</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04554824802929477</v>
+        <v>0.04564994775662128</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1086508306463485</v>
+        <v>0.1059718569499608</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>60</v>
@@ -1501,19 +1501,19 @@
         <v>50305</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>38838</v>
+        <v>38758</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>64144</v>
+        <v>65828</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07632280631657476</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0589249029278489</v>
+        <v>0.05880333555724145</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0973192899315429</v>
+        <v>0.0998739773942733</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>17489</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>10698</v>
+        <v>10533</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>27802</v>
+        <v>27005</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.03708281438034429</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02268454300167454</v>
+        <v>0.02233494238281099</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.05895146908404431</v>
+        <v>0.05726159132040537</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>8453</v>
+        <v>6672</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.0103498937612928</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.04508234895933892</v>
+        <v>0.03558264597733433</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>21</v>
@@ -1572,19 +1572,19 @@
         <v>19429</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>12336</v>
+        <v>12315</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>29837</v>
+        <v>29517</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.02947807823661721</v>
+        <v>0.02947807823661722</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01871671488650476</v>
+        <v>0.0186849660572285</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.04526858836481276</v>
+        <v>0.04478282951784233</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>126291</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>108272</v>
+        <v>108382</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>145624</v>
+        <v>145388</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2677859866518845</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2295790380954393</v>
+        <v>0.2298123989950753</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3087792842691626</v>
+        <v>0.3082795742650967</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>92</v>
@@ -1622,19 +1622,19 @@
         <v>58385</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>48663</v>
+        <v>48826</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>68826</v>
+        <v>69497</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3113914201636948</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2595381357980082</v>
+        <v>0.2604113243299376</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3670795219689461</v>
+        <v>0.3706546004692181</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>237</v>
@@ -1643,19 +1643,19 @@
         <v>184676</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>162864</v>
+        <v>164253</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>205942</v>
+        <v>206872</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2801904605593792</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2470976758188207</v>
+        <v>0.2492052636175096</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3124556530090022</v>
+        <v>0.3138667176392105</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>291164</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>269176</v>
+        <v>271018</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>311680</v>
+        <v>312692</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6173808280070652</v>
+        <v>0.6173808280070651</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5707577875272686</v>
+        <v>0.5746623448900228</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6608812720032635</v>
+        <v>0.6630289317301864</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>174</v>
@@ -1693,19 +1693,19 @@
         <v>113534</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>101664</v>
+        <v>103305</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>124282</v>
+        <v>124701</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.60552663154092</v>
+        <v>0.6055266315409201</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5422143070270531</v>
+        <v>0.5509690247393451</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.662847570625487</v>
+        <v>0.6650839932316297</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>459</v>
@@ -1714,19 +1714,19 @@
         <v>404699</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>380360</v>
+        <v>379492</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>427331</v>
+        <v>426382</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6140086548874288</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5770821292112462</v>
+        <v>0.5757645796330365</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6483467049005065</v>
+        <v>0.6469071432886379</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>97954</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>79796</v>
+        <v>77405</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>120972</v>
+        <v>121832</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.08654390477848957</v>
+        <v>0.08654390477848956</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07050130256320707</v>
+        <v>0.06838881038985786</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1068804942958332</v>
+        <v>0.1076406361998571</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>70</v>
@@ -1839,19 +1839,19 @@
         <v>58720</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>45469</v>
+        <v>45873</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>73954</v>
+        <v>73039</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06823057736681919</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05283345171349227</v>
+        <v>0.05330230188524426</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08593155643203199</v>
+        <v>0.0848686040786272</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>159</v>
@@ -1860,19 +1860,19 @@
         <v>156674</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>133578</v>
+        <v>135009</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>182568</v>
+        <v>185344</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.07863371082529463</v>
+        <v>0.07863371082529465</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06704157422359529</v>
+        <v>0.06776000551233224</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09162977541458926</v>
+        <v>0.0930225940921184</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>25069</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>16546</v>
+        <v>17393</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>36611</v>
+        <v>36716</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02214883078858501</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01461827124522371</v>
+        <v>0.01536713751608377</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03234652794633586</v>
+        <v>0.03243871651597368</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>27</v>
@@ -1910,19 +1910,19 @@
         <v>19748</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>13411</v>
+        <v>13285</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>28925</v>
+        <v>28564</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02294631703823299</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01558333233247074</v>
+        <v>0.01543706510839657</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03360940986242911</v>
+        <v>0.03318973394368569</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>54</v>
@@ -1931,19 +1931,19 @@
         <v>44817</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>33786</v>
+        <v>33686</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>59058</v>
+        <v>59736</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.02249329418226089</v>
+        <v>0.0224932941822609</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01695687776595354</v>
+        <v>0.01690686381492628</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02964098375990355</v>
+        <v>0.02998114495005844</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>290703</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>260480</v>
+        <v>261306</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>320458</v>
+        <v>324423</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2568404329167182</v>
+        <v>0.2568404329167183</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2301377197946919</v>
+        <v>0.2308676803768994</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2831297373881181</v>
+        <v>0.2866326571546123</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>297</v>
@@ -1981,19 +1981,19 @@
         <v>195666</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>175171</v>
+        <v>174118</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>215090</v>
+        <v>215949</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2273555586793821</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.203541554984474</v>
+        <v>0.2023178084402398</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2499264736986482</v>
+        <v>0.2509237286135459</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>627</v>
@@ -2002,19 +2002,19 @@
         <v>486369</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>451318</v>
+        <v>452406</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>523504</v>
+        <v>527211</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2441048404894098</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2265132022007194</v>
+        <v>0.227059263525976</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2627428533594811</v>
+        <v>0.2646031269633439</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>718117</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>681611</v>
+        <v>681796</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>751438</v>
+        <v>754337</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6344668315162072</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6022135388178325</v>
+        <v>0.6023765484407245</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6639063247658009</v>
+        <v>0.6664681542041117</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>835</v>
@@ -2052,19 +2052,19 @@
         <v>586481</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>564109</v>
+        <v>561957</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>610693</v>
+        <v>609668</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.6814675469155658</v>
+        <v>0.6814675469155657</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6554720252862922</v>
+        <v>0.6529711512375521</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7096003816117805</v>
+        <v>0.7084099522141892</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1507</v>
@@ -2073,19 +2073,19 @@
         <v>1304598</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1263792</v>
+        <v>1259646</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1345778</v>
+        <v>1346850</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.6547681545030345</v>
+        <v>0.6547681545030346</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6342880597074665</v>
+        <v>0.6322068353962639</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6754359005141634</v>
+        <v>0.6759738775446266</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>55051</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>40216</v>
+        <v>40144</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>74293</v>
+        <v>72309</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.09692632451018317</v>
+        <v>0.09692632451018314</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0708066428147269</v>
+        <v>0.07068008420805458</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1308067058062147</v>
+        <v>0.1273133779312186</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>95</v>
@@ -2198,19 +2198,19 @@
         <v>67584</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>54621</v>
+        <v>54900</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>82744</v>
+        <v>81965</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.08134264169599194</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06574149820625597</v>
+        <v>0.06607714669958778</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09958907372981961</v>
+        <v>0.09865206986604677</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>144</v>
@@ -2219,19 +2219,19 @@
         <v>122634</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>103836</v>
+        <v>101677</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>144133</v>
+        <v>143864</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.0876701212151843</v>
+        <v>0.08767012121518428</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07423168758168264</v>
+        <v>0.07268811068812769</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1030397580241086</v>
+        <v>0.1028474491782126</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>13532</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7794</v>
+        <v>7395</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>21722</v>
+        <v>21613</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.02382534159866891</v>
+        <v>0.0238253415986689</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0137222883498514</v>
+        <v>0.01301981197986131</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03824561190688036</v>
+        <v>0.03805392144687308</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>46</v>
@@ -2269,19 +2269,19 @@
         <v>31750</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>23308</v>
+        <v>23126</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>42589</v>
+        <v>42760</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03821353188830461</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02805347948879243</v>
+        <v>0.02783383316735653</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05125900170761118</v>
+        <v>0.05146490733404397</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>63</v>
@@ -2290,19 +2290,19 @@
         <v>45282</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>34311</v>
+        <v>35921</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>57099</v>
+        <v>58264</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03237146102088383</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02452842877402491</v>
+        <v>0.02567968027505877</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04081930438257015</v>
+        <v>0.04165230139835305</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>109329</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>91407</v>
+        <v>92077</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>127937</v>
+        <v>128288</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1924920617876002</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.16093820923154</v>
+        <v>0.1621181263478315</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2252554819000771</v>
+        <v>0.2258742940563457</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>442</v>
@@ -2340,19 +2340,19 @@
         <v>271450</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>250323</v>
+        <v>250606</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>294283</v>
+        <v>295647</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3267137446597996</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3012855517092606</v>
+        <v>0.3016264695184975</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3541945381344127</v>
+        <v>0.3558373806222965</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>571</v>
@@ -2361,19 +2361,19 @@
         <v>380779</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>353407</v>
+        <v>352627</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>412231</v>
+        <v>413216</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.2722153979254849</v>
+        <v>0.2722153979254848</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2526478204778069</v>
+        <v>0.2520901959677914</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.294700416414817</v>
+        <v>0.295404633075468</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>390053</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>365763</v>
+        <v>367065</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>412917</v>
+        <v>412409</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6867562721035477</v>
+        <v>0.6867562721035476</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6439902980742386</v>
+        <v>0.646282657565726</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7270127841691154</v>
+        <v>0.7261185643986163</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>707</v>
@@ -2411,19 +2411,19 @@
         <v>460067</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>434858</v>
+        <v>436410</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>481533</v>
+        <v>481925</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.553730081755904</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.5233896207472265</v>
+        <v>0.5252572722127403</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.5795670626424743</v>
+        <v>0.5800388682931454</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1059</v>
@@ -2432,19 +2432,19 @@
         <v>850119</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>813070</v>
+        <v>815453</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>881448</v>
+        <v>883300</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.6077430198384469</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.5812570332089176</v>
+        <v>0.5829604964204411</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.6301393010569305</v>
+        <v>0.631463687048791</v>
       </c>
     </row>
     <row r="28">
@@ -2536,19 +2536,19 @@
         <v>30188</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>16729</v>
+        <v>17228</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>48445</v>
+        <v>48883</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1272542464415922</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07051839335516411</v>
+        <v>0.0726213607841466</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2042144870994203</v>
+        <v>0.2060602050394238</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>104</v>
@@ -2557,19 +2557,19 @@
         <v>89307</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>72652</v>
+        <v>72945</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>110139</v>
+        <v>109524</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1058301555319103</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.08609353611596626</v>
+        <v>0.08644043592045576</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1305160623678792</v>
+        <v>0.1297880224843125</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>118</v>
@@ -2578,19 +2578,19 @@
         <v>119495</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>97345</v>
+        <v>96512</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>147680</v>
+        <v>147457</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1105312855346352</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0900423911658287</v>
+        <v>0.08927207873214567</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1366014354318056</v>
+        <v>0.1363951392926131</v>
       </c>
     </row>
     <row r="30">
@@ -2607,19 +2607,19 @@
         <v>7411</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1838</v>
+        <v>1830</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>19582</v>
+        <v>21914</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03123799416627826</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.007749772681250908</v>
+        <v>0.007716131647121516</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.08254516414322331</v>
+        <v>0.09237344079406198</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>49</v>
@@ -2628,19 +2628,19 @@
         <v>34897</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>26392</v>
+        <v>26100</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>46416</v>
+        <v>47759</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.04135333362334018</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03127519075098647</v>
+        <v>0.03092904176567275</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05500425005293932</v>
+        <v>0.05659455459000216</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>52</v>
@@ -2649,19 +2649,19 @@
         <v>42307</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>31086</v>
+        <v>30764</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>57886</v>
+        <v>57686</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03913370498146158</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02875448859734171</v>
+        <v>0.02845621932042256</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05354379879670036</v>
+        <v>0.05335839514810842</v>
       </c>
     </row>
     <row r="31">
@@ -2678,19 +2678,19 @@
         <v>19382</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>9868</v>
+        <v>9867</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>33440</v>
+        <v>35330</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.08170143854695192</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04159661624750013</v>
+        <v>0.04159083765836392</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1409607457575613</v>
+        <v>0.1489277339894491</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>339</v>
@@ -2699,19 +2699,19 @@
         <v>216081</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>194903</v>
+        <v>194973</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>239628</v>
+        <v>238692</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2560590649236937</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2309625761049024</v>
+        <v>0.2310461405459538</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.28396264664757</v>
+        <v>0.2828540650876132</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>352</v>
@@ -2720,19 +2720,19 @@
         <v>235463</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>210074</v>
+        <v>210106</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>261796</v>
+        <v>262965</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2177994313168751</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1943152194997481</v>
+        <v>0.1943449076886639</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2421572507627696</v>
+        <v>0.2432388676731766</v>
       </c>
     </row>
     <row r="32">
@@ -2749,19 +2749,19 @@
         <v>180247</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>159452</v>
+        <v>156483</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>198664</v>
+        <v>197535</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.7598063208451776</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6721484743722156</v>
+        <v>0.6596296342052598</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8374375181824018</v>
+        <v>0.8326819310428</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>666</v>
@@ -2770,19 +2770,19 @@
         <v>503586</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>476005</v>
+        <v>478802</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>530736</v>
+        <v>532986</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.5967574459210558</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5640733410294392</v>
+        <v>0.5673880548870168</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6289298703438166</v>
+        <v>0.6315965320363451</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>748</v>
@@ -2791,19 +2791,19 @@
         <v>683834</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>650878</v>
+        <v>648875</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>716694</v>
+        <v>714844</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.632535578167028</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6020519363297052</v>
+        <v>0.6001996857053138</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6629307604645976</v>
+        <v>0.661220127021779</v>
       </c>
     </row>
     <row r="33">
@@ -2895,19 +2895,19 @@
         <v>290505</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>255772</v>
+        <v>257901</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>332592</v>
+        <v>333002</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.08438844227390215</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.07429882671206585</v>
+        <v>0.07491744097861391</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.09661429210937691</v>
+        <v>0.09673318557493879</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>341</v>
@@ -2916,19 +2916,19 @@
         <v>265215</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>238242</v>
+        <v>234632</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>296535</v>
+        <v>295854</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.07297378780703904</v>
+        <v>0.07297378780703906</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.06555225547501968</v>
+        <v>0.0645588738180006</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.08159146313098747</v>
+        <v>0.08140417494883886</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>603</v>
@@ -2937,19 +2937,19 @@
         <v>555720</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>509884</v>
+        <v>511193</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>607960</v>
+        <v>603061</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.07852634264946359</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.07204940923992957</v>
+        <v>0.07223443578457055</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.0859080883604319</v>
+        <v>0.08521578488915166</v>
       </c>
     </row>
     <row r="35">
@@ -2966,19 +2966,19 @@
         <v>97275</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>77939</v>
+        <v>79138</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>118777</v>
+        <v>117108</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.02825722137866906</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02264036024323119</v>
+        <v>0.02298880333681099</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03450344033000283</v>
+        <v>0.03401864050669904</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>157</v>
@@ -2987,19 +2987,19 @@
         <v>112610</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>96147</v>
+        <v>95988</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>132068</v>
+        <v>130480</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.03098464798638829</v>
+        <v>0.03098464798638828</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02645468920585093</v>
+        <v>0.02641105314641615</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.03633840150320451</v>
+        <v>0.03590143669349825</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>257</v>
@@ -3008,19 +3008,19 @@
         <v>209885</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>184812</v>
+        <v>184353</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>239577</v>
+        <v>238348</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.02965791612060884</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.02611493468185531</v>
+        <v>0.0260500910048461</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.03385355073768607</v>
+        <v>0.03367990864065131</v>
       </c>
     </row>
     <row r="36">
@@ -3037,19 +3037,19 @@
         <v>824636</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>772094</v>
+        <v>770816</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>883035</v>
+        <v>873079</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2395474687156427</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2242846199798955</v>
+        <v>0.2239131710793882</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2565116742096152</v>
+        <v>0.2536194732981628</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1457</v>
@@ -3058,19 +3058,19 @@
         <v>944220</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>899667</v>
+        <v>896893</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>988491</v>
+        <v>993360</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.2598017522830373</v>
+        <v>0.2598017522830372</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2475429061430461</v>
+        <v>0.2467795902428845</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.271982727649879</v>
+        <v>0.2733226289771161</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2373</v>
@@ -3079,19 +3079,19 @@
         <v>1768857</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1692902</v>
+        <v>1700651</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>1836033</v>
+        <v>1839351</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2499492402662733</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.239216471129314</v>
+        <v>0.240311353237292</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2594416421404943</v>
+        <v>0.2599104971698406</v>
       </c>
     </row>
     <row r="37">
@@ -3108,19 +3108,19 @@
         <v>2230060</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2166887</v>
+        <v>2170870</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>2291531</v>
+        <v>2288790</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.6478068676317862</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.6294560698321388</v>
+        <v>0.6306130148099268</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.6656637428139313</v>
+        <v>0.664867418749767</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>3287</v>
@@ -3129,19 +3129,19 @@
         <v>2312342</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>2263271</v>
+        <v>2256919</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>2364549</v>
+        <v>2363928</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.6362398119235354</v>
+        <v>0.6362398119235353</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.6227379227262385</v>
+        <v>0.6209902019036961</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.6506044507871521</v>
+        <v>0.6504334657647955</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>5309</v>
@@ -3150,19 +3150,19 @@
         <v>4542402</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>4461105</v>
+        <v>4463699</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>4619364</v>
+        <v>4622551</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.6418665009636542</v>
+        <v>0.6418665009636543</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.6303787605148953</v>
+        <v>0.6307452733443668</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.6527416705302198</v>
+        <v>0.653191998949643</v>
       </c>
     </row>
     <row r="38">
